--- a/usuarios_registrados.xlsx
+++ b/usuarios_registrados.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="570" windowWidth="28455" windowHeight="11955" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,9 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b val="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,19 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -72,7 +62,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -435,10 +425,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -829,6 +819,58 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Qual é o seu animal de estimação favorito?</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Qual seu ano de nascimento?</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Qual seu ano de nascimento?</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
